--- a/안서준_SQL/항공table.xlsx
+++ b/안서준_SQL/항공table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seojun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seojun\Desktop\안서준_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98893F-F51E-4058-9425-5293ACDAB73A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A819B-37AF-4DA3-B269-25379475F8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{6101281F-1047-4B84-A127-52C8629E4AB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>항공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,38 @@
   </si>
   <si>
     <t>공항명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fligth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996A1E7-C75E-4307-BC10-AB437041D194}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,6 +661,9 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -662,10 +697,45 @@
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -688,10 +758,33 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -703,17 +796,25 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -721,6 +822,9 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
@@ -738,29 +842,43 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
         <v>30</v>
       </c>
     </row>

--- a/안서준_SQL/항공table.xlsx
+++ b/안서준_SQL/항공table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seojun\Desktop\안서준_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A819B-37AF-4DA3-B269-25379475F8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021C0789-7422-4E5E-87FE-E473BE2CB22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{6101281F-1047-4B84-A127-52C8629E4AB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>항공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>항공번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,14 @@
   </si>
   <si>
     <t>varcahr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +259,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +321,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,9 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996A1E7-C75E-4307-BC10-AB437041D194}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -643,90 +672,90 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
+      <c r="K4" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -734,48 +763,48 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -783,103 +812,109 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
         <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/안서준_SQL/항공table.xlsx
+++ b/안서준_SQL/항공table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seojun\Desktop\안서준_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021C0789-7422-4E5E-87FE-E473BE2CB22F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FB51B-5B79-4F7B-8B42-164A91E0FD57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{6101281F-1047-4B84-A127-52C8629E4AB0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>항공</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도착시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발나라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,102 +95,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천국제공항 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공항명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천국제공항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한민국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김포국제공항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항공권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항공사에 예매함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공항명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fligth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>passenger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>airport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varcahr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,7 +119,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
+    <t>티켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티켓번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승객명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart_nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안서준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR/ICH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국/인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive_nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAL-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP/HND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR/ICU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAL-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,24 +313,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,281 +652,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996A1E7-C75E-4307-BC10-AB437041D194}">
-  <dimension ref="A1:L34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="34.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1445</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44809</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1420</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1">
+        <v>960522</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1094657709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="E26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>19</v>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L1" r:id="rId1" xr:uid="{16390B64-05B0-4882-B731-79A907E86E4C}"/>
+    <hyperlink ref="L1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
